--- a/input/resources-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources-spreadsheets/notification-forwarder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-alerts/input/resources-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E00ACE-4A9D-274F-8075-EEED4B5089F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798B84-79BB-E043-833E-A63C585CFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47480" yWindow="500" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17420" yWindow="680" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="igs" sheetId="14" r:id="rId1"/>
@@ -344,11 +344,6 @@
     <t>client</t>
   </si>
   <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
-</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -706,6 +701,11 @@
   </si>
   <si>
     <t>https://build.fhir.org/ig/HL7/davinci-alerts/package.tgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the  [Privacy, Safety, and Security](security.html) page for requirements and recommendations.
+</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,7 +884,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1219,10 +1218,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1230,13 +1229,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -1244,13 +1243,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -1258,13 +1257,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -1272,13 +1271,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -2233,19 +2232,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" t="s">
-        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2256,13 +2255,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2273,13 +2272,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>162</v>
-      </c>
-      <c r="E3" t="s">
-        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -2290,13 +2289,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
         <v>164</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2312,7 +2311,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2328,63 +2327,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>198</v>
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2400,8 +2399,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,23 +2422,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2455,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,34 +2478,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
         <v>185</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
         <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2551,24 +2550,24 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2579,95 +2578,95 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2678,16 +2677,16 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2696,13 +2695,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2711,13 +2710,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2726,13 +2725,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2741,13 +2740,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2756,13 +2755,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2771,13 +2770,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2827,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -2879,27 +2878,27 @@
         <v>80</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="257" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -2912,7 +2911,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -2920,7 +2919,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2928,13 +2927,13 @@
     </row>
     <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -2945,84 +2944,84 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -3076,19 +3075,19 @@
     </row>
     <row r="2" spans="1:5" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,31 +3125,31 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
         <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K1" t="s">
         <v>63</v>

--- a/input/resources-spreadsheets/notification-forwarder.xlsx
+++ b/input/resources-spreadsheets/notification-forwarder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-alerts/input/resources-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798B84-79BB-E043-833E-A63C585CFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFFF38-3A83-8D41-8C9E-569C2579A944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="680" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17420" yWindow="680" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="igs" sheetId="14" r:id="rId1"/>
@@ -631,9 +631,6 @@
     <t>http://hl7.org/fhir/us/core/STU7/index.html</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU R1</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.1.0</t>
   </si>
   <si>
@@ -706,6 +703,9 @@
     <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the  [Privacy, Safety, and Security](security.html) page for requirements and recommendations.
 </t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU 1.1</t>
   </si>
 </sst>
 </file>
@@ -1202,8 +1202,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
         <v>174</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -2330,7 +2330,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2399,7 +2399,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,34 +2478,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
         <v>184</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
         <v>186</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2695,7 +2695,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2710,7 +2710,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2725,7 +2725,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2740,7 +2740,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2755,7 +2755,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2770,7 +2770,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2878,16 +2878,16 @@
         <v>80</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="257" thickTop="1" x14ac:dyDescent="0.2">
